--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -576,6 +576,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,102 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,87 +997,87 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="18" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="33" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
@@ -1086,88 +1086,88 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="18" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="30" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="18" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="30" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="18" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E15" t="s">
@@ -1175,32 +1175,32 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="18" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="18" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="18" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E18" t="s">
@@ -1208,32 +1208,32 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="18" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="18" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="18" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E21" t="s">
@@ -1241,32 +1241,32 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="18" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="18" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="18" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E24" t="s">
@@ -1274,111 +1274,111 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="18" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="34" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="37"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="32"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="25" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="30" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="20"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="6" t="s">
         <v>78</v>
       </c>
@@ -1387,9 +1387,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="20"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="6" t="s">
         <v>82</v>
       </c>
@@ -1398,9 +1398,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="20"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6" t="s">
         <v>83</v>
       </c>
@@ -1409,9 +1409,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="20"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="6" t="s">
         <v>84</v>
       </c>
@@ -1420,10 +1420,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="38" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1431,44 +1431,44 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="39"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="40"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="32"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="6" t="s">
         <v>78</v>
       </c>
@@ -1477,9 +1477,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="32"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="6" t="s">
         <v>90</v>
       </c>
@@ -1488,9 +1488,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="32"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="6" t="s">
         <v>91</v>
       </c>
@@ -1499,9 +1499,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="32"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="6" t="s">
         <v>92</v>
       </c>
@@ -1510,9 +1510,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="32"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="6" t="s">
         <v>93</v>
       </c>
@@ -1521,9 +1521,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="32"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="6" t="s">
         <v>94</v>
       </c>
@@ -1532,44 +1532,44 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="34" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="41"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="16"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="6" t="s">
         <v>103</v>
       </c>
@@ -1578,9 +1578,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="2" t="s">
         <v>104</v>
       </c>
@@ -1589,9 +1589,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
       <c r="D52" s="6" t="s">
         <v>105</v>
       </c>
@@ -1600,48 +1600,48 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="17"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="17"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="17"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="17"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="A58" s="39">
         <v>8</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -1652,9 +1652,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
       <c r="D59" s="2" t="s">
         <v>17</v>
       </c>
@@ -1663,9 +1663,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="6" t="s">
         <v>19</v>
       </c>
@@ -1674,13 +1674,13 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="A61" s="39">
         <v>9</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="42" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -1691,9 +1691,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="6" t="s">
         <v>25</v>
       </c>
@@ -1702,9 +1702,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="6" t="s">
         <v>26</v>
       </c>
@@ -1713,13 +1713,13 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="A64" s="39">
         <v>10</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="40" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -1730,57 +1730,25 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="9" t="s">
+      <c r="A65" s="39"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="41" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C40:C48"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="A40:A48"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="C13:C25"/>
-    <mergeCell ref="B13:B25"/>
-    <mergeCell ref="A13:A25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A49:A52"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="D65:D66"/>
@@ -1792,6 +1760,38 @@
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A13:A25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="C13:C25"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C40:C48"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="A40:A48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
   <si>
     <t>Number</t>
   </si>
@@ -69,48 +69,12 @@
     <t>6. Click "Create account"</t>
   </si>
   <si>
-    <t>1. Click LMB "Network" button header</t>
-  </si>
-  <si>
-    <t>1. Scroll down to see button of web site</t>
-  </si>
-  <si>
     <t>Check link of button "See our Pricing" from network page</t>
   </si>
   <si>
-    <t>1. Click LMB "See our Pricing" button</t>
-  </si>
-  <si>
-    <t>3. Will be redirected to https://telnyx.com/pricing with content</t>
-  </si>
-  <si>
-    <t>2. Button is visible</t>
-  </si>
-  <si>
-    <t>1. Will be redirected to https://telnyx.com/solutions/global-ip-network</t>
-  </si>
-  <si>
     <t>Check amount of savings from "Switch + Save"</t>
   </si>
   <si>
-    <t>1. Scroll down to "Switch + Save" block</t>
-  </si>
-  <si>
-    <t>2. Drag the outbound calls to 365,000</t>
-  </si>
-  <si>
-    <t>3. Check the "Save up" per month</t>
-  </si>
-  <si>
-    <t>3. The amount is  : "2778"</t>
-  </si>
-  <si>
-    <t>2. Slider moved</t>
-  </si>
-  <si>
-    <t>1. Page scrolled down to block</t>
-  </si>
-  <si>
     <t>Check the footer Twitter link</t>
   </si>
   <si>
@@ -349,6 +313,27 @@
   </si>
   <si>
     <t>TC-8</t>
+  </si>
+  <si>
+    <t>2. Scroll down to "Switch + Save" block</t>
+  </si>
+  <si>
+    <t>3. Drag the outbound calls to 362,000</t>
+  </si>
+  <si>
+    <t>4. Check the "Save up" per month</t>
+  </si>
+  <si>
+    <t>2. Page scrolled down to block</t>
+  </si>
+  <si>
+    <t>3. Slider moved</t>
+  </si>
+  <si>
+    <t>4. The amount is  : "2778"</t>
+  </si>
+  <si>
+    <t>TC-9</t>
   </si>
 </sst>
 </file>
@@ -594,6 +579,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,86 +618,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,769 +982,903 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="22" t="s">
+      <c r="C26" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="C29" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="C32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="6" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="31"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="31"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="27" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="34" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="28"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="29"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="22" t="s">
+      <c r="A40" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="20"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="6" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="27"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="27"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="6" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="2" t="s">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="27"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="E54" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="17" t="s">
+      <c r="E55" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="28"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="16"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="6" t="s">
+      <c r="E56" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="39">
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
+        <v>10</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="6" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E85" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="39">
-        <v>9</v>
-      </c>
-      <c r="B61" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="39">
-        <v>10</v>
-      </c>
-      <c r="B64" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" s="41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B64:B66"/>
+  <mergeCells count="40">
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C40:C48"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="A40:A48"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="C13:C25"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
@@ -1775,23 +1894,12 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="C13:C25"/>
-    <mergeCell ref="B13:B25"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C40:C48"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="A40:A48"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="B84:B86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
   <si>
     <t>Number</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Check the footer LinkedIn link</t>
   </si>
   <si>
-    <t>1. Scroll down to footer of web site</t>
-  </si>
-  <si>
-    <t>1. Scroll down to footer elements</t>
-  </si>
-  <si>
     <t>2. Will be redirected to https://telnyx.com/sign-up with registration content</t>
   </si>
   <si>
@@ -78,12 +72,6 @@
     <t>Check the footer Twitter link</t>
   </si>
   <si>
-    <t>2. Click LMB "Follow on Twitter"</t>
-  </si>
-  <si>
-    <t>2. Will be redirected to autorization page to Twitter</t>
-  </si>
-  <si>
     <t>Visit page "Support Center" from footer of main page</t>
   </si>
   <si>
@@ -334,6 +322,15 @@
   </si>
   <si>
     <t>TC-9</t>
+  </si>
+  <si>
+    <t>3. Will be redirected to autorization page to Twitter with URL "https://twitter.com/telnyx"</t>
+  </si>
+  <si>
+    <t>3. Click LMB "Follow on Twitter"</t>
+  </si>
+  <si>
+    <t>TC-10</t>
   </si>
 </sst>
 </file>
@@ -543,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,95 +576,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,685 +970,703 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="E9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C10" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="2" t="s">
+      <c r="C26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="20" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="2" t="s">
+      <c r="C32" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="33"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="2" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-    </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="24"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
@@ -1823,62 +1829,34 @@
       <c r="D83" s="6"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>10</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>20</v>
-      </c>
+      <c r="A85" s="11"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C40:C48"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="A40:A48"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="C13:C25"/>
-    <mergeCell ref="B13:B25"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B57:B60"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
@@ -1895,11 +1873,25 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="C13:C25"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C40:C48"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="A40:A48"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A32:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
   <si>
     <t>Number</t>
   </si>
@@ -331,6 +331,25 @@
   </si>
   <si>
     <t>TC-10</t>
+  </si>
+  <si>
+    <t>Check button "See all Products" from header</t>
+  </si>
+  <si>
+    <t>2. Click on "Products" blog</t>
+  </si>
+  <si>
+    <t>3. Click on "See all products" button</t>
+  </si>
+  <si>
+    <t>2. "Products" menu open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Redirected to new page with URL 'https://telnyx.com/products'
+</t>
+  </si>
+  <si>
+    <t>TC-11</t>
   </si>
 </sst>
 </file>
@@ -540,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,6 +595,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -585,14 +628,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -603,59 +646,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,13 +995,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -987,9 +1012,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
@@ -998,9 +1023,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1009,9 +1034,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
@@ -1020,13 +1045,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1037,9 +1062,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1048,9 +1073,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1059,9 +1084,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="38"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1070,13 +1095,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1087,9 +1112,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1098,9 +1123,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="8" t="s">
         <v>33</v>
       </c>
@@ -1109,13 +1134,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1126,9 +1151,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1137,9 +1162,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8" t="s">
         <v>36</v>
       </c>
@@ -1148,9 +1173,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="8" t="s">
         <v>38</v>
       </c>
@@ -1159,9 +1184,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1170,9 +1195,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="8" t="s">
         <v>41</v>
       </c>
@@ -1181,9 +1206,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="8" t="s">
         <v>42</v>
       </c>
@@ -1192,9 +1217,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="8" t="s">
         <v>43</v>
       </c>
@@ -1203,9 +1228,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="8" t="s">
         <v>44</v>
       </c>
@@ -1214,9 +1239,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="34"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="8" t="s">
         <v>45</v>
       </c>
@@ -1225,9 +1250,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="8" t="s">
         <v>46</v>
       </c>
@@ -1236,9 +1261,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="8" t="s">
         <v>47</v>
       </c>
@@ -1247,9 +1272,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="8" t="s">
         <v>48</v>
       </c>
@@ -1258,13 +1283,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1275,31 +1300,31 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="22" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="34"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1310,9 +1335,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
@@ -1321,9 +1346,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="10" t="s">
         <v>63</v>
       </c>
@@ -1332,13 +1357,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="24" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1349,9 +1374,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="34"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="6" t="s">
         <v>62</v>
       </c>
@@ -1360,9 +1385,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="34"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="6" t="s">
         <v>66</v>
       </c>
@@ -1371,9 +1396,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="6" t="s">
         <v>67</v>
       </c>
@@ -1382,9 +1407,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="34"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="6" t="s">
         <v>68</v>
       </c>
@@ -1393,10 +1418,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="30" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="35" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1404,31 +1429,31 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="31"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="32"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1439,9 +1464,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="6" t="s">
         <v>62</v>
       </c>
@@ -1450,9 +1475,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="6" t="s">
         <v>74</v>
       </c>
@@ -1461,9 +1486,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="6" t="s">
         <v>75</v>
       </c>
@@ -1472,9 +1497,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="6" t="s">
         <v>76</v>
       </c>
@@ -1483,9 +1508,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="6" t="s">
         <v>77</v>
       </c>
@@ -1494,9 +1519,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="26"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="6" t="s">
         <v>78</v>
       </c>
@@ -1505,31 +1530,31 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="22" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1540,9 +1565,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="6" t="s">
         <v>87</v>
       </c>
@@ -1551,9 +1576,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="2" t="s">
         <v>88</v>
       </c>
@@ -1562,9 +1587,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="6" t="s">
         <v>89</v>
       </c>
@@ -1573,13 +1598,13 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -1590,9 +1615,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="2" t="s">
         <v>94</v>
       </c>
@@ -1601,9 +1626,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="6" t="s">
         <v>95</v>
       </c>
@@ -1612,9 +1637,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="6" t="s">
         <v>96</v>
       </c>
@@ -1623,13 +1648,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -1640,9 +1665,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="26"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="2" t="s">
         <v>18</v>
       </c>
@@ -1651,47 +1676,65 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="39" t="s">
+      <c r="A59" s="14"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="24"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="7"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -1851,12 +1894,29 @@
       <c r="E86" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="B57:B60"/>
+  <mergeCells count="43">
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C40:C48"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="A40:A48"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="C13:C25"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A2:A5"/>
@@ -1873,25 +1933,11 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="C13:C25"/>
-    <mergeCell ref="B13:B25"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C40:C48"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="A40:A48"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B57:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="116">
   <si>
     <t>Number</t>
   </si>
@@ -350,6 +350,25 @@
   </si>
   <si>
     <t>TC-11</t>
+  </si>
+  <si>
+    <t>Check button "See all Pricing" from header</t>
+  </si>
+  <si>
+    <t>2. Click on "Pricing" blog</t>
+  </si>
+  <si>
+    <t>2. "Pricing" menu open</t>
+  </si>
+  <si>
+    <t>3. Click on "See all pricing" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Redirected to new page with URL 'https://telnyx.com/pricing'
+</t>
+  </si>
+  <si>
+    <t>TC-12</t>
   </si>
 </sst>
 </file>
@@ -559,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,6 +614,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,83 +632,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,7 +978,7 @@
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,13 +1008,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="33" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1012,9 +1025,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1023,9 +1036,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1034,9 +1047,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
@@ -1045,13 +1058,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1062,9 +1075,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1073,9 +1086,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="31"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1084,9 +1097,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1095,13 +1108,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1112,9 +1125,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1123,9 +1136,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="8" t="s">
         <v>33</v>
       </c>
@@ -1134,13 +1147,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1151,9 +1164,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1162,9 +1175,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="8" t="s">
         <v>36</v>
       </c>
@@ -1173,9 +1186,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="8" t="s">
         <v>38</v>
       </c>
@@ -1184,9 +1197,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1195,9 +1208,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="8" t="s">
         <v>41</v>
       </c>
@@ -1206,9 +1219,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="8" t="s">
         <v>42</v>
       </c>
@@ -1217,9 +1230,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="8" t="s">
         <v>43</v>
       </c>
@@ -1228,9 +1241,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="8" t="s">
         <v>44</v>
       </c>
@@ -1239,9 +1252,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="8" t="s">
         <v>45</v>
       </c>
@@ -1250,9 +1263,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="8" t="s">
         <v>46</v>
       </c>
@@ -1261,9 +1274,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="8" t="s">
         <v>47</v>
       </c>
@@ -1272,9 +1285,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="26"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="8" t="s">
         <v>48</v>
       </c>
@@ -1283,13 +1296,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1300,31 +1313,31 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="38" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="34"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1335,9 +1348,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
@@ -1346,9 +1359,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="10" t="s">
         <v>63</v>
       </c>
@@ -1357,13 +1370,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="33" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1374,9 +1387,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="6" t="s">
         <v>62</v>
       </c>
@@ -1385,9 +1398,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="25"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="6" t="s">
         <v>66</v>
       </c>
@@ -1396,9 +1409,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="6" t="s">
         <v>67</v>
       </c>
@@ -1407,9 +1420,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="6" t="s">
         <v>68</v>
       </c>
@@ -1418,10 +1431,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="35" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="30" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1429,31 +1442,31 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="36"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="37"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1464,9 +1477,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="19"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="6" t="s">
         <v>62</v>
       </c>
@@ -1475,9 +1488,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="6" t="s">
         <v>74</v>
       </c>
@@ -1486,9 +1499,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="6" t="s">
         <v>75</v>
       </c>
@@ -1497,9 +1510,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="6" t="s">
         <v>76</v>
       </c>
@@ -1508,9 +1521,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="6" t="s">
         <v>77</v>
       </c>
@@ -1519,9 +1532,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="19"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="6" t="s">
         <v>78</v>
       </c>
@@ -1530,31 +1543,31 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="38" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="17"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1565,9 +1578,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="6" t="s">
         <v>87</v>
       </c>
@@ -1576,9 +1589,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="2" t="s">
         <v>88</v>
       </c>
@@ -1587,9 +1600,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="6" t="s">
         <v>89</v>
       </c>
@@ -1598,13 +1611,13 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -1615,9 +1628,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="2" t="s">
         <v>94</v>
       </c>
@@ -1626,9 +1639,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="6" t="s">
         <v>95</v>
       </c>
@@ -1637,9 +1650,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="6" t="s">
         <v>96</v>
       </c>
@@ -1648,13 +1661,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -1665,9 +1678,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="2" t="s">
         <v>18</v>
       </c>
@@ -1676,31 +1689,31 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="16" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="24" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="17"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="24"/>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="13" t="s">
         <v>104</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -1711,9 +1724,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="6" t="s">
         <v>105</v>
       </c>
@@ -1722,9 +1735,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="6" t="s">
         <v>106</v>
       </c>
@@ -1733,25 +1746,43 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
+      <c r="A64" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
@@ -1894,31 +1925,14 @@
       <c r="E86" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C40:C48"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="A40:A48"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="C13:C25"/>
-    <mergeCell ref="B13:B25"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
+  <mergeCells count="46">
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B64:B66"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="C49:C52"/>
     <mergeCell ref="B49:B52"/>
@@ -1933,11 +1947,31 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C13:C25"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C40:C48"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="A40:A48"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A53:A56"/>
     <mergeCell ref="A57:A60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="B57:B60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="126">
   <si>
     <t>Number</t>
   </si>
@@ -369,6 +369,37 @@
   </si>
   <si>
     <t>TC-12</t>
+  </si>
+  <si>
+    <t>Check sms pricing for Kyivstar in Ukraine</t>
+  </si>
+  <si>
+    <t>3. Click on "Sms API" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Redirected to new page with URL 'https://telnyx.com/pricing/messaging'
+</t>
+  </si>
+  <si>
+    <t>4. In sms pricing chose "Ukraine"</t>
+  </si>
+  <si>
+    <t>4. Chosed "Ukraine"</t>
+  </si>
+  <si>
+    <t>5.Scroll to "In-Depth Messaging pricing" tab</t>
+  </si>
+  <si>
+    <t>5. See header "In-Depth Messaging pricing"</t>
+  </si>
+  <si>
+    <t>6. Find Kyivstar</t>
+  </si>
+  <si>
+    <t>6. Saw Kyivstar</t>
+  </si>
+  <si>
+    <t>TC-13</t>
   </si>
 </sst>
 </file>
@@ -578,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -614,6 +645,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -623,23 +678,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -647,18 +714,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -674,26 +729,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,13 +1054,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1025,9 +1071,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="34"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1036,9 +1082,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1047,9 +1093,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
@@ -1058,13 +1104,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1075,9 +1121,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1086,9 +1132,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1097,9 +1143,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="38"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1108,13 +1154,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1125,9 +1171,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="34"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1136,9 +1182,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="8" t="s">
         <v>33</v>
       </c>
@@ -1147,13 +1193,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1164,9 +1210,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="34"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1175,9 +1221,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="34"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="8" t="s">
         <v>36</v>
       </c>
@@ -1186,9 +1232,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="34"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="8" t="s">
         <v>38</v>
       </c>
@@ -1197,9 +1243,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="34"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1208,9 +1254,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="34"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="8" t="s">
         <v>41</v>
       </c>
@@ -1219,9 +1265,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="34"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="8" t="s">
         <v>42</v>
       </c>
@@ -1230,9 +1276,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="34"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="8" t="s">
         <v>43</v>
       </c>
@@ -1241,9 +1287,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="34"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="8" t="s">
         <v>44</v>
       </c>
@@ -1252,9 +1298,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="34"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="8" t="s">
         <v>45</v>
       </c>
@@ -1263,9 +1309,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="34"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="8" t="s">
         <v>46</v>
       </c>
@@ -1274,9 +1320,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="34"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="8" t="s">
         <v>47</v>
       </c>
@@ -1285,9 +1331,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="8" t="s">
         <v>48</v>
       </c>
@@ -1296,13 +1342,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="21" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1313,31 +1359,31 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="22" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1348,9 +1394,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
@@ -1359,9 +1405,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="10" t="s">
         <v>63</v>
       </c>
@@ -1370,13 +1416,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="31" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1387,9 +1433,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="34"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="6" t="s">
         <v>62</v>
       </c>
@@ -1398,9 +1444,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="34"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="6" t="s">
         <v>66</v>
       </c>
@@ -1409,9 +1455,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="34"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="6" t="s">
         <v>67</v>
       </c>
@@ -1420,9 +1466,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="34"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="6" t="s">
         <v>68</v>
       </c>
@@ -1431,10 +1477,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="30" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1442,31 +1488,31 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="31"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="32"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1477,9 +1523,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="6" t="s">
         <v>62</v>
       </c>
@@ -1488,9 +1534,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="6" t="s">
         <v>74</v>
       </c>
@@ -1499,9 +1545,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="6" t="s">
         <v>75</v>
       </c>
@@ -1510,9 +1556,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="6" t="s">
         <v>76</v>
       </c>
@@ -1521,9 +1567,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="6" t="s">
         <v>77</v>
       </c>
@@ -1532,9 +1578,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="26"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="6" t="s">
         <v>78</v>
       </c>
@@ -1543,31 +1589,31 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="22" t="s">
+      <c r="A47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1578,9 +1624,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="6" t="s">
         <v>87</v>
       </c>
@@ -1589,9 +1635,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="2" t="s">
         <v>88</v>
       </c>
@@ -1600,9 +1646,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="6" t="s">
         <v>89</v>
       </c>
@@ -1611,13 +1657,13 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -1628,9 +1674,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="2" t="s">
         <v>94</v>
       </c>
@@ -1639,9 +1685,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="6" t="s">
         <v>95</v>
       </c>
@@ -1650,9 +1696,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="6" t="s">
         <v>96</v>
       </c>
@@ -1661,13 +1707,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -1678,9 +1724,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="26"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="2" t="s">
         <v>18</v>
       </c>
@@ -1689,31 +1735,31 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="39" t="s">
+      <c r="A59" s="15"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="24" t="s">
+      <c r="E59" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="24"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17"/>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="21" t="s">
         <v>104</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -1724,9 +1770,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="6" t="s">
         <v>105</v>
       </c>
@@ -1735,9 +1781,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="6" t="s">
         <v>106</v>
       </c>
@@ -1746,13 +1792,13 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="21" t="s">
         <v>110</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -1763,9 +1809,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="6" t="s">
         <v>111</v>
       </c>
@@ -1774,9 +1820,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="15"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="6" t="s">
         <v>113</v>
       </c>
@@ -1784,47 +1830,77 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="43"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
@@ -1925,14 +2001,30 @@
       <c r="E86" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B64:B66"/>
+  <mergeCells count="49">
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C40:C48"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="A40:A48"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="C49:C52"/>
     <mergeCell ref="B49:B52"/>
@@ -1949,29 +2041,16 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="C13:C25"/>
     <mergeCell ref="B13:B25"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C40:C48"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="A40:A48"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B64:B66"/>
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="A61:A63"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="136">
   <si>
     <t>Number</t>
   </si>
@@ -400,6 +400,37 @@
   </si>
   <si>
     <t>TC-13</t>
+  </si>
+  <si>
+    <t>Check blog filter by product</t>
+  </si>
+  <si>
+    <t>3. Click on "Blog" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Redirected to new page with URL 'https://telnyx.com/resources'
+</t>
+  </si>
+  <si>
+    <t>4.Click on "Messaging" button from "Filter by product"</t>
+  </si>
+  <si>
+    <t>5.Click on "Verify API" button from "Filter by product"</t>
+  </si>
+  <si>
+    <t>6.Click on "Sip trunking" button from "Filter by product"</t>
+  </si>
+  <si>
+    <t>7.Click on "FAX" button from "Filter by product"</t>
+  </si>
+  <si>
+    <t>8.Click on "Wireless" button from "Filter by product"</t>
+  </si>
+  <si>
+    <t>Show content for that page</t>
+  </si>
+  <si>
+    <t>TC-14</t>
   </si>
 </sst>
 </file>
@@ -639,107 +670,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,13 +1085,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="37" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1071,9 +1102,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1082,9 +1113,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1093,9 +1124,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
@@ -1104,13 +1135,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="40" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1121,9 +1152,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1132,9 +1163,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1143,9 +1174,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1154,13 +1185,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="37" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1171,9 +1202,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1182,9 +1213,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="33"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="8" t="s">
         <v>33</v>
       </c>
@@ -1193,13 +1224,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1210,9 +1241,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1221,9 +1252,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="8" t="s">
         <v>36</v>
       </c>
@@ -1232,9 +1263,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="8" t="s">
         <v>38</v>
       </c>
@@ -1243,9 +1274,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1254,9 +1285,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="8" t="s">
         <v>41</v>
       </c>
@@ -1265,9 +1296,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="8" t="s">
         <v>42</v>
       </c>
@@ -1276,9 +1307,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="8" t="s">
         <v>43</v>
       </c>
@@ -1287,9 +1318,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="32"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="8" t="s">
         <v>44</v>
       </c>
@@ -1298,9 +1329,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="8" t="s">
         <v>45</v>
       </c>
@@ -1309,9 +1340,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="8" t="s">
         <v>46</v>
       </c>
@@ -1320,9 +1351,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="8" t="s">
         <v>47</v>
       </c>
@@ -1331,9 +1362,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="8" t="s">
         <v>48</v>
       </c>
@@ -1342,13 +1373,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -1359,31 +1390,31 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="34" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="37"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1394,9 +1425,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
@@ -1405,24 +1436,24 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="37" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -1433,9 +1464,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="32"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="6" t="s">
         <v>62</v>
       </c>
@@ -1444,9 +1475,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="32"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="6" t="s">
         <v>66</v>
       </c>
@@ -1455,9 +1486,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="32"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="6" t="s">
         <v>67</v>
       </c>
@@ -1466,9 +1497,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="32"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="6" t="s">
         <v>68</v>
       </c>
@@ -1477,10 +1508,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="38" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="34" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1488,31 +1519,31 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="39"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="40"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -1523,9 +1554,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="19"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="6" t="s">
         <v>62</v>
       </c>
@@ -1534,9 +1565,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="6" t="s">
         <v>74</v>
       </c>
@@ -1545,9 +1576,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="6" t="s">
         <v>75</v>
       </c>
@@ -1556,9 +1587,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="19"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="6" t="s">
         <v>76</v>
       </c>
@@ -1567,9 +1598,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="6" t="s">
         <v>77</v>
       </c>
@@ -1578,9 +1609,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="19"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="6" t="s">
         <v>78</v>
       </c>
@@ -1589,31 +1620,31 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="34" t="s">
+      <c r="A47" s="26"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="17"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="28"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1624,9 +1655,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="6" t="s">
         <v>87</v>
       </c>
@@ -1635,9 +1666,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="2" t="s">
         <v>88</v>
       </c>
@@ -1646,9 +1677,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="6" t="s">
         <v>89</v>
       </c>
@@ -1657,13 +1688,13 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -1674,9 +1705,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="2" t="s">
         <v>94</v>
       </c>
@@ -1685,9 +1716,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="6" t="s">
         <v>95</v>
       </c>
@@ -1696,9 +1727,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="6" t="s">
         <v>96</v>
       </c>
@@ -1707,13 +1738,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -1724,9 +1755,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="19"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="30"/>
       <c r="D58" s="2" t="s">
         <v>18</v>
       </c>
@@ -1735,31 +1766,31 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="16" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="28" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="17"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="28"/>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -1770,9 +1801,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="6" t="s">
         <v>105</v>
       </c>
@@ -1781,9 +1812,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="6" t="s">
         <v>106</v>
       </c>
@@ -1792,13 +1823,13 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -1809,9 +1840,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="6" t="s">
         <v>111</v>
       </c>
@@ -1820,9 +1851,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="6" t="s">
         <v>113</v>
       </c>
@@ -1831,13 +1862,13 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="14" t="s">
         <v>116</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -1848,9 +1879,9 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="6" t="s">
         <v>111</v>
       </c>
@@ -1859,20 +1890,20 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="13" t="s">
+      <c r="A69" s="21"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
       <c r="D70" s="6" t="s">
         <v>119</v>
       </c>
@@ -1881,9 +1912,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="6" t="s">
         <v>121</v>
       </c>
@@ -1892,9 +1923,9 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="6" t="s">
         <v>123</v>
       </c>
@@ -1902,126 +1933,110 @@
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="2"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="7"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="7"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" s="15"/>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E80" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C40:C48"/>
-    <mergeCell ref="B40:B48"/>
-    <mergeCell ref="A40:A48"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C32:C39"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
+  <mergeCells count="53">
+    <mergeCell ref="E76:E80"/>
+    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="C13:C25"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A61:A63"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="A29:A31"/>
@@ -2038,19 +2053,27 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C40:C48"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="A40:A48"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C32:C39"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C13:C25"/>
-    <mergeCell ref="B13:B25"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A67:A72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
